--- a/date_pages.xlsx
+++ b/date_pages.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,26 +799,338 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>42995</v>
+        <v>44398</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>CS2 - NICETRY</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>cs2nicetry</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/cs2nicetry</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.2885-19/201541526_305024831348647_701764617744532161_n.jpg?stp=dst-jpg_e0_s150x150&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_cat=1&amp;_nc_ohc=139XQpD1JpEQ7kNvgE6fNuA&amp;edm=AOQ1c0wBAAAA&amp;ccb=7-5&amp;oh=00_AYACSmZHIZN1U6XKZkFdsZOUOFuQljVTU2dlp6wUjqG6lA&amp;oe=665D8C83&amp;_nc_sid=8b3546</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>45441.87574579861</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>55460</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DRAFT5 - Notícias de Counter-Strike</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>draft5gg</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/draft5gg</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://scontent-lga3-1.cdninstagram.com/v/t51.2885-19/405203173_1350311369178467_4229073637095226381_n.jpg?stp=dst-jpg_e0_s150x150&amp;_nc_ht=scontent-lga3-1.cdninstagram.com&amp;_nc_cat=111&amp;_nc_ohc=mQW8qNO8N1QQ7kNvgFFyUGz&amp;edm=AOQ1c0wBAAAA&amp;ccb=7-5&amp;oh=00_AYAiULgHCMxCsRzrmSMAXgG8SlIzx50zxN0bKa6fdaGm1Q&amp;oe=665D99AA&amp;_nc_sid=8b3546</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>45441.87591342592</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>96607</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fallen da Depre</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>fallendadepre</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/fallendadepre</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://scontent-lhr6-1.cdninstagram.com/v/t51.2885-19/338495813_6437167886313860_1892508398722405513_n.jpg?stp=dst-jpg_e0_s150x150&amp;_nc_ht=scontent-lhr6-1.cdninstagram.com&amp;_nc_cat=1&amp;_nc_ohc=gJ04MQIplnYQ7kNvgFTh_91&amp;edm=AOQ1c0wBAAAA&amp;ccb=7-5&amp;oh=00_AYBme8Ujjwy_EAhlknYMRxHuLNa_he8jwSEOMEQ-w70VVw&amp;oe=665D9329&amp;_nc_sid=8b3546</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>45441.87609659723</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>43729</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>The Clutch CS2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>theclutchcsgo</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/theclutchcsgo</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://scontent-jnb2-1.cdninstagram.com/v/t51.2885-19/408001748_346269581331867_6472747006192487998_n.jpg?stp=dst-jpg_e0_s150x150&amp;_nc_ht=scontent-jnb2-1.cdninstagram.com&amp;_nc_cat=103&amp;_nc_ohc=rmzT-f_Gn0AQ7kNvgHaD6se&amp;edm=AOQ1c0wBAAAA&amp;ccb=7-5&amp;oh=00_AYCVOiV2o4H0RDhtw9Qk_V3N4yDF3sduKn3CIkinFuQ9OA&amp;oe=665D9FAD&amp;_nc_sid=8b3546</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>45441.87625482639</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>27763</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Dust2 Brasil</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>dust2_br</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/dust2_br</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://instagram.fbhz2-2.fna.fbcdn.net/v/t51.2885-19/279852801_323226056583781_6588888958443190526_n.jpg?stp=dst-jpg_e0_s150x150&amp;_nc_ht=instagram.fbhz2-2.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=VSib91s89K0Q7kNvgEtWOGF&amp;edm=AOQ1c0wBAAAA&amp;ccb=7-5&amp;oh=00_AYBdnyzYgiktDND-gWPJ31Ep8-aP1Aq7n7oQ_IeGjIdY8A&amp;oe=665D8CA2&amp;_nc_sid=8b3546</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>45441.87639326389</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42990</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>🇧🇷 CS.BR.OFICIAL 🇧🇷</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>cs.br.oficial</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://scontent-iad3-1.xx.fbcdn.net/v/t51.2885-15/347802779_644592977665349_2536953617766924804_n.jpg?_nc_cat=102&amp;ccb=1-7&amp;_nc_sid=7d201b&amp;_nc_eui2=AeEjUvRsYjhVecirrs1LWs3FZhY9oSbxnMlmFj2hJvGcyZr7sGfuRQKxTArfx59wQck&amp;_nc_ohc=kgas5urPpOcQ7kNvgF8DHqy&amp;_nc_ht=scontent-iad3-1.xx&amp;edm=AL-3X8kEAAAA&amp;oh=00_AYBlZLJTY0HxPrejZM55A50ldr5JbUGeLEL-Gh-fXNUVQA&amp;oe=665C5A84</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>45440.9243134183</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/cs.br.oficial</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://instagram.ftpa1-1.fna.fbcdn.net/v/t51.2885-19/347802779_644592977665349_2536953617766924804_n.jpg?stp=dst-jpg_e0_s150x150&amp;_nc_ht=instagram.ftpa1-1.fna.fbcdn.net&amp;_nc_cat=105&amp;_nc_ohc=5TSVD-AI900Q7kNvgFEWpSm&amp;edm=AOQ1c0wBAAAA&amp;ccb=7-5&amp;oh=00_AYBqh-0RyJmuiBpNx-eWSaQ4CQ619TbFgC0S2zyyqRrZww&amp;oe=665D878D&amp;_nc_sid=8b3546</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>45441.8769033912</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>44399</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CS2 - NICETRY</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>cs2nicetry</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/cs2nicetry</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://scontent-atl3-2.cdninstagram.com/v/t51.2885-19/201541526_305024831348647_701764617744532161_n.jpg?stp=dst-jpg_e0_s150x150&amp;_nc_ht=scontent-atl3-2.cdninstagram.com&amp;_nc_cat=1&amp;_nc_ohc=139XQpD1JpEQ7kNvgHDoAsY&amp;edm=AOQ1c0wBAAAA&amp;ccb=7-5&amp;oh=00_AYBTRWCCM0w5XvZkJOpS5MU3aGYHTjSsTN3JE0OJ2ffj7Q&amp;oe=665D8C83&amp;_nc_sid=8b3546</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>45441.8787922956</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>55460</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DRAFT5 - Notícias de Counter-Strike</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>draft5gg</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/draft5gg</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://scontent-dfw5-1.cdninstagram.com/v/t51.2885-19/405203173_1350311369178467_4229073637095226381_n.jpg?stp=dst-jpg_e0_s150x150&amp;_nc_ht=scontent-dfw5-1.cdninstagram.com&amp;_nc_cat=111&amp;_nc_ohc=mQW8qNO8N1QQ7kNvgEQIF3l&amp;edm=AOQ1c0wBAAAA&amp;ccb=7-5&amp;oh=00_AYDueBk0TPuN7o8PiVzBcdzKBtFewmFlyTX-BVZzIj_7wQ&amp;oe=665D99AA&amp;_nc_sid=8b3546</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>45441.87891300359</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>96607</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Fallen da Depre</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>fallendadepre</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/fallendadepre</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://scontent-atl3-2.cdninstagram.com/v/t51.2885-19/338495813_6437167886313860_1892508398722405513_n.jpg?stp=dst-jpg_e0_s150x150&amp;_nc_ht=scontent-atl3-2.cdninstagram.com&amp;_nc_cat=1&amp;_nc_ohc=gJ04MQIplnYQ7kNvgF7BLUh&amp;edm=AOQ1c0wBAAAA&amp;ccb=7-5&amp;oh=00_AYCu5-GdjTGGdF29I0C_Vc5QSFQeZV1de9KAR4SGNNFTqg&amp;oe=665D9329&amp;_nc_sid=8b3546</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>45441.87902177555</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>43729</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>The Clutch CS2</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>theclutchcsgo</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/theclutchcsgo</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://scontent-dfw5-1.cdninstagram.com/v/t51.2885-19/408001748_346269581331867_6472747006192487998_n.jpg?stp=dst-jpg_e0_s150x150&amp;_nc_ht=scontent-dfw5-1.cdninstagram.com&amp;_nc_cat=103&amp;_nc_ohc=rmzT-f_Gn0AQ7kNvgGu-chO&amp;edm=AOQ1c0wBAAAA&amp;ccb=7-5&amp;oh=00_AYCLSaTa8DHPdbs-qMuPO6lBIc7VaqcLk9zlxXKBohkLZQ&amp;oe=665D9FAD&amp;_nc_sid=8b3546</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>45441.87916258661</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27763</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Dust2 Brasil</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>dust2_br</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/dust2_br</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://instagram.fsjp7-1.fna.fbcdn.net/v/t51.2885-19/279852801_323226056583781_6588888958443190526_n.jpg?stp=dst-jpg_e0_s150x150&amp;_nc_ht=instagram.fsjp7-1.fna.fbcdn.net&amp;_nc_cat=101&amp;_nc_ohc=VSib91s89K0Q7kNvgEKy35o&amp;edm=AOQ1c0wBAAAA&amp;ccb=7-5&amp;oh=00_AYAI0_9NtP2EZF_dejsmkQ2775zWDmicyakCyeWiJQ4GlA&amp;oe=665D8CA2&amp;_nc_sid=8b3546</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>45441.87929091515</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>42990</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>🇧🇷 CS.BR.OFICIAL 🇧🇷</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>cs.br.oficial</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/cs.br.oficial</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://scontent-lax3-1.cdninstagram.com/v/t51.2885-19/347802779_644592977665349_2536953617766924804_n.jpg?stp=dst-jpg_e0_s150x150&amp;_nc_ht=scontent-lax3-1.cdninstagram.com&amp;_nc_cat=105&amp;_nc_ohc=5TSVD-AI900Q7kNvgFii5E4&amp;edm=AOQ1c0wBAAAA&amp;ccb=7-5&amp;oh=00_AYC5dCOXwtAPTnhAszoPyfgAnm4FF1FPj38RylDRfpXR9Q&amp;oe=665D878D&amp;_nc_sid=8b3546</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>45441.87946075016</v>
       </c>
     </row>
   </sheetData>
